--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed5/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCD/10/seed5/result_data_KNN.xlsx
@@ -485,10 +485,10 @@
         <v>4.03</v>
       </c>
       <c r="C3" t="n">
-        <v>-11.166</v>
+        <v>-10.878</v>
       </c>
       <c r="D3" t="n">
-        <v>-7.32</v>
+        <v>-7.040000000000001</v>
       </c>
       <c r="E3" t="n">
         <v>17.78</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.386</v>
+        <v>4.807</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -672,7 +672,7 @@
         <v>4.04</v>
       </c>
       <c r="C14" t="n">
-        <v>-12.778</v>
+        <v>-11.895</v>
       </c>
       <c r="D14" t="n">
         <v>-7.43</v>
@@ -876,7 +876,7 @@
         <v>6.56</v>
       </c>
       <c r="C26" t="n">
-        <v>-12.266</v>
+        <v>-13.04</v>
       </c>
       <c r="D26" t="n">
         <v>-9.31</v>
@@ -947,7 +947,7 @@
         <v>-10.71</v>
       </c>
       <c r="D30" t="n">
-        <v>-7.458</v>
+        <v>-7.25</v>
       </c>
       <c r="E30" t="n">
         <v>16.57</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-13.332</v>
+        <v>-12.575</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -975,7 +975,7 @@
         <v>-20.86</v>
       </c>
       <c r="B32" t="n">
-        <v>6.356</v>
+        <v>6.379</v>
       </c>
       <c r="C32" t="n">
         <v>-10.55</v>
@@ -1029,7 +1029,7 @@
         <v>10.18</v>
       </c>
       <c r="C35" t="n">
-        <v>-12.062</v>
+        <v>-12.311</v>
       </c>
       <c r="D35" t="n">
         <v>-9.9</v>
@@ -1043,7 +1043,7 @@
         <v>-18.53</v>
       </c>
       <c r="B36" t="n">
-        <v>9.036000000000001</v>
+        <v>8.673999999999999</v>
       </c>
       <c r="C36" t="n">
         <v>-10.09</v>
@@ -1063,7 +1063,7 @@
         <v>9.41</v>
       </c>
       <c r="C37" t="n">
-        <v>-13.606</v>
+        <v>-13.387</v>
       </c>
       <c r="D37" t="n">
         <v>-7.88</v>
@@ -1077,7 +1077,7 @@
         <v>-21.37</v>
       </c>
       <c r="B38" t="n">
-        <v>5.172</v>
+        <v>5.203</v>
       </c>
       <c r="C38" t="n">
         <v>-12.46</v>
@@ -1185,7 +1185,7 @@
         <v>-10.47</v>
       </c>
       <c r="D44" t="n">
-        <v>-7.358</v>
+        <v>-7.409999999999999</v>
       </c>
       <c r="E44" t="n">
         <v>16.52</v>
@@ -1199,7 +1199,7 @@
         <v>5.73</v>
       </c>
       <c r="C45" t="n">
-        <v>-13.614</v>
+        <v>-12.67</v>
       </c>
       <c r="D45" t="n">
         <v>-7.87</v>
@@ -1213,7 +1213,7 @@
         <v>-22.54</v>
       </c>
       <c r="B46" t="n">
-        <v>5.33</v>
+        <v>5.823</v>
       </c>
       <c r="C46" t="n">
         <v>-11.47</v>
@@ -1349,7 +1349,7 @@
         <v>-22.23</v>
       </c>
       <c r="B54" t="n">
-        <v>4.758000000000001</v>
+        <v>5.340000000000001</v>
       </c>
       <c r="C54" t="n">
         <v>-13.87</v>
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.478</v>
+        <v>4.742</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1403,7 +1403,7 @@
         <v>4.82</v>
       </c>
       <c r="C57" t="n">
-        <v>-13.376</v>
+        <v>-13.697</v>
       </c>
       <c r="D57" t="n">
         <v>-8.31</v>
@@ -1423,7 +1423,7 @@
         <v>-15.6</v>
       </c>
       <c r="D58" t="n">
-        <v>-7.773999999999999</v>
+        <v>-8.021000000000001</v>
       </c>
       <c r="E58" t="n">
         <v>16.91</v>
@@ -1570,7 +1570,7 @@
         <v>-21.67</v>
       </c>
       <c r="B67" t="n">
-        <v>5.918</v>
+        <v>5.285</v>
       </c>
       <c r="C67" t="n">
         <v>-10.67</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.444</v>
+        <v>5.034999999999999</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1655,7 +1655,7 @@
         <v>-21.62</v>
       </c>
       <c r="B72" t="n">
-        <v>5.616</v>
+        <v>5.095</v>
       </c>
       <c r="C72" t="n">
         <v>-11.2</v>
@@ -1865,7 +1865,7 @@
         <v>-12.28</v>
       </c>
       <c r="D84" t="n">
-        <v>-8.064</v>
+        <v>-8.238</v>
       </c>
       <c r="E84" t="n">
         <v>16.54</v>
@@ -1950,7 +1950,7 @@
         <v>-10.11</v>
       </c>
       <c r="D89" t="n">
-        <v>-6.576000000000001</v>
+        <v>-6.962000000000001</v>
       </c>
       <c r="E89" t="n">
         <v>19.73</v>
@@ -1978,13 +1978,13 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>6.322000000000001</v>
+        <v>6.218000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
       </c>
       <c r="D91" t="n">
-        <v>-5.948</v>
+        <v>-6.395</v>
       </c>
       <c r="E91" t="n">
         <v>19.72</v>
@@ -2001,7 +2001,7 @@
         <v>-9.49</v>
       </c>
       <c r="D92" t="n">
-        <v>-6.706</v>
+        <v>-6.681999999999999</v>
       </c>
       <c r="E92" t="n">
         <v>19.64</v>
@@ -2114,7 +2114,7 @@
         <v>-21.4</v>
       </c>
       <c r="B99" t="n">
-        <v>5.351999999999999</v>
+        <v>5.718</v>
       </c>
       <c r="C99" t="n">
         <v>-15.77</v>
@@ -2134,7 +2134,7 @@
         <v>5.09</v>
       </c>
       <c r="C100" t="n">
-        <v>-13.288</v>
+        <v>-12.807</v>
       </c>
       <c r="D100" t="n">
         <v>-7.71</v>
@@ -2168,10 +2168,10 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.606</v>
+        <v>-13.583</v>
       </c>
       <c r="D102" t="n">
-        <v>-7.738</v>
+        <v>-7.723999999999999</v>
       </c>
       <c r="E102" t="n">
         <v>16.08</v>
